--- a/data/trans_camb/P19-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.468567648928437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.624009246938451</v>
+        <v>-3.624009246938453</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.365174454777934</v>
@@ -655,7 +655,7 @@
         <v>4.429342040463263</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.472046182054711</v>
+        <v>-4.472046182054718</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6093964987089306</v>
@@ -664,7 +664,7 @@
         <v>3.788048484680179</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.53807723466631</v>
+        <v>-4.538077234666316</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.814414368240779</v>
+        <v>-2.076207950228206</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0378711888561518</v>
+        <v>0.4696567889341181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.10793830407148</v>
+        <v>-8.380360763024486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.191309000759055</v>
+        <v>-5.583566799037967</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2181397974441433</v>
+        <v>0.5338109515390504</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.763258834383091</v>
+        <v>-8.843390695830216</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.79470328416021</v>
+        <v>-3.633010663599033</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7863736917700965</v>
+        <v>0.9490179830882393</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.739894056764152</v>
+        <v>-7.985982531783637</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.840131959408288</v>
+        <v>5.634135574575403</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.261308032075396</v>
+        <v>8.356827647162412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.441080519604133</v>
+        <v>1.159771856267241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.530460101131748</v>
+        <v>2.555019769793607</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.019051441895158</v>
+        <v>8.303884544464763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.04746155007978621</v>
+        <v>0.00244002037536743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.270479965148304</v>
+        <v>2.444140388135311</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.472616184554355</v>
+        <v>6.525450284942017</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.084771449991109</v>
+        <v>-1.239167027769801</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2351295114204665</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1906900802587663</v>
+        <v>-0.1906900802587665</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.05090635978485757</v>
@@ -760,7 +760,7 @@
         <v>0.1651669343305255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1667593406259622</v>
+        <v>-0.1667593406259624</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.02561984071421284</v>
@@ -769,7 +769,7 @@
         <v>0.1592546051722158</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1907868130966708</v>
+        <v>-0.190786813096671</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1357983134758104</v>
+        <v>-0.09902991273828037</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.002106765714962188</v>
+        <v>0.02532624568976063</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3799028714773505</v>
+        <v>-0.3922322639723475</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1823576351612923</v>
+        <v>-0.1926859120709017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.006780175978146801</v>
+        <v>0.01480989430144994</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3013852075781021</v>
+        <v>-0.3118911501407141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1500857300836431</v>
+        <v>-0.1400230340260091</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03130961226359526</v>
+        <v>0.03678245543096251</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3083932669059281</v>
+        <v>-0.3185633189730174</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.353351411104296</v>
+        <v>0.3286099967925983</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.517415854942929</v>
+        <v>0.5303297096816491</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08716742892841968</v>
+        <v>0.0765384657878766</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1009170017799921</v>
+        <v>0.1062821903635832</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3258643824799837</v>
+        <v>0.3419993389605984</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.00164565774579305</v>
+        <v>0.001666484477863247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09958077267009595</v>
+        <v>0.1136518214664197</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2925712797743957</v>
+        <v>0.2951877091381064</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.050543295128695</v>
+        <v>-0.05684519045184167</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>8.296422602465567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.212074906296908</v>
+        <v>-3.212074906296905</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.41336449079752</v>
@@ -869,7 +869,7 @@
         <v>5.925451729500875</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.284764002870327</v>
+        <v>-3.284764002870333</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6731467305518768</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.348247715347544</v>
+        <v>-4.49276779864475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.260114385319431</v>
+        <v>4.237078483481142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.090878957976606</v>
+        <v>-6.689503710701479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.821333271693337</v>
+        <v>-2.474317853534034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.886884356395113</v>
+        <v>2.010632618495885</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.778956020374373</v>
+        <v>-6.902820827763327</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.410520311027105</v>
+        <v>-2.087897852868771</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.153688293388502</v>
+        <v>4.22520339331737</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.82158022804788</v>
+        <v>-5.601005367522353</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.248750114458284</v>
+        <v>3.058329105356559</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.48767675408534</v>
+        <v>12.21992734788277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8458008146602473</v>
+        <v>1.024258320460869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.070683031278448</v>
+        <v>5.328328056608732</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.73511520323099</v>
+        <v>10.26552651048915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4940723833474936</v>
+        <v>0.3992339464137681</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.238402226962788</v>
+        <v>3.562272119470574</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.955842637630553</v>
+        <v>10.08945173863644</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.359381919803146</v>
+        <v>-0.1009459935375003</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3696288214443106</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1431069171491494</v>
+        <v>-0.1431069171491493</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04852156243827677</v>
@@ -974,7 +974,7 @@
         <v>0.2034239419059815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1127677132813363</v>
+        <v>-0.1127677132813364</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02613646557613984</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1765151546471309</v>
+        <v>-0.186883623282695</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1812659902514329</v>
+        <v>0.1746879365771121</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2959368250497432</v>
+        <v>-0.2812843581859934</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08882820767710981</v>
+        <v>-0.07925428889956872</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06435778247967568</v>
+        <v>0.06417778560828657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2146240974659429</v>
+        <v>-0.2196179701892113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08523210392303007</v>
+        <v>-0.07780062373936755</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1562161562386127</v>
+        <v>0.1552474877883703</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2135113034828933</v>
+        <v>-0.2060973456454415</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1520445553594424</v>
+        <v>0.1515562755087085</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6082422049390508</v>
+        <v>0.5897460229275628</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04160854855733722</v>
+        <v>0.0452113291753</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.183402810974608</v>
+        <v>0.1979136965652987</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3569965726336916</v>
+        <v>0.3829156144302456</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02073489050541484</v>
+        <v>0.01479522598434709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1325355252406553</v>
+        <v>0.1475071631116524</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4080265676053675</v>
+        <v>0.4139161511833301</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01531069690818824</v>
+        <v>-0.003691086877796592</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.733330420341636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.256755190554966</v>
+        <v>2.25675519055496</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1956847340686851</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.194119496875082</v>
+        <v>-4.174718293651486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7094113930635564</v>
+        <v>0.3213293192174233</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.508906652054814</v>
+        <v>-2.095306356272218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.909636613748728</v>
+        <v>-5.137559304760524</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.866928003935291</v>
+        <v>-3.798558888893746</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.56122497108493</v>
+        <v>-3.490552031700134</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.07206671541516</v>
+        <v>-2.932934145063939</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1446008562669114</v>
+        <v>-0.1362409891955108</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.513415300601764</v>
+        <v>-1.11441794562836</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.107817999625474</v>
+        <v>4.174205303324054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.404769589344248</v>
+        <v>9.119241486710647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.58782135192018</v>
+        <v>6.135621773637276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.151145450191279</v>
+        <v>4.224296417272229</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.653221414300236</v>
+        <v>5.539118920960648</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.268255690069838</v>
+        <v>4.848240056597048</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.133433981517536</v>
+        <v>3.176232327611574</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.212599633676392</v>
+        <v>6.039749150660356</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.287533047585321</v>
+        <v>4.447846439784683</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1688772269478377</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.08051720979444195</v>
+        <v>0.08051720979444175</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.005585948034308315</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1401191073017738</v>
+        <v>-0.1392274650224546</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02565937969501184</v>
+        <v>0.01517384556101564</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05300346763194839</v>
+        <v>-0.07268702743001393</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1334647929358536</v>
+        <v>-0.1394118891255119</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1069933918454413</v>
+        <v>-0.1025857197740732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09518480552064529</v>
+        <v>-0.09303319982621522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09306088077026338</v>
+        <v>-0.09045227375638681</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.004293327769342878</v>
+        <v>-0.002945256325827961</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04511586654785359</v>
+        <v>-0.03397252225782124</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1582067865913414</v>
+        <v>0.1584829681926793</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3600880760779347</v>
+        <v>0.3567291136367215</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2514602663587595</v>
+        <v>0.2283097493616668</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1242004085400981</v>
+        <v>0.1303114667281754</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1706393958205734</v>
+        <v>0.1659033363196754</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1293840238083168</v>
+        <v>0.1506981308589473</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.104450351319289</v>
+        <v>0.1051296328141032</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2045491707229014</v>
+        <v>0.2044938743742193</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1438572043799326</v>
+        <v>0.1516062840258742</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.537919889895129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.154153834209739</v>
+        <v>4.154153834209745</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-7.85028927188256</v>
@@ -1306,7 +1306,7 @@
         <v>0.8792404044639379</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.563453739228232</v>
+        <v>1.563453739228227</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.695581767285788</v>
+        <v>-3.608448186288229</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.569285038578596</v>
+        <v>-4.93145810522974</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.798823522954406</v>
+        <v>-1.603074753156674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.63135419718188</v>
+        <v>-14.76152704773548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.815291717103301</v>
+        <v>-7.854482075563491</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.142447078470903</v>
+        <v>-7.915704226996029</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.575760601688929</v>
+        <v>-6.422889351537493</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.606784786388306</v>
+        <v>-4.039700533755659</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.355868765720179</v>
+        <v>-2.545610356894838</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.649408728646248</v>
+        <v>8.654525881646491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.711167592840154</v>
+        <v>7.383552154260323</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.991298236676609</v>
+        <v>9.080570530020262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.6540112845921384</v>
+        <v>-0.2268090067705791</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.698041301903492</v>
+        <v>5.85990262611963</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.642351559394129</v>
+        <v>3.920103770249363</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.820509281551787</v>
+        <v>3.025776943943911</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.651058405752841</v>
+        <v>5.226639129135775</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.48603277473293</v>
+        <v>5.503795905827589</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.05059353730717796</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1366607834203761</v>
+        <v>0.1366607834203763</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1918911023877035</v>
@@ -1411,7 +1411,7 @@
         <v>0.02515938102456676</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.04473808089325595</v>
+        <v>0.04473808089325579</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1116265516868883</v>
+        <v>-0.1113803399076287</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1390570364075199</v>
+        <v>-0.1482849722187203</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05425535592859876</v>
+        <v>-0.04694477127572628</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3237256053546442</v>
+        <v>-0.3319855510982854</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1744425349642535</v>
+        <v>-0.1749021812582939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1826644907004196</v>
+        <v>-0.1755496129107978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1758265143019365</v>
+        <v>-0.1746119481562369</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09591979203780715</v>
+        <v>-0.1062797722343391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06255442499209979</v>
+        <v>-0.06706559163192737</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3197784799028178</v>
+        <v>0.3200463703799707</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2836168737547359</v>
+        <v>0.2688111153703727</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3255638532484719</v>
+        <v>0.3403263307231774</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01909265456717672</v>
+        <v>-0.006433857227810037</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1518900680538865</v>
+        <v>0.1593582564310363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09723769918198874</v>
+        <v>0.1091192555602134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08762250047815345</v>
+        <v>0.09094932255132081</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1765849370083704</v>
+        <v>0.1639025269992112</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.173662316419137</v>
+        <v>0.1714855657235687</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.092790399438589</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.3576866842051274</v>
+        <v>-0.3576866842051329</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.6274393563925507</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.280760086860769</v>
+        <v>-2.290891232089425</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.938221818631416</v>
+        <v>1.89220496022019</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7380583992621021</v>
+        <v>-0.7426851436918377</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.511920337736613</v>
+        <v>-3.458874935890889</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8877638276625086</v>
+        <v>0.685927315638859</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.62013880798407</v>
+        <v>-2.461260035196291</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.144225497985555</v>
+        <v>-2.300724538753639</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.88151761265405</v>
+        <v>2.021463007029032</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.03072639836623</v>
+        <v>-1.002039846105215</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.150947464705661</v>
+        <v>2.076652943083799</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.53557815796681</v>
+        <v>6.319566083093668</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.650935030510765</v>
+        <v>3.860569294794076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.053915199475581</v>
+        <v>1.13142434103912</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.337572835358539</v>
+        <v>5.263944456227764</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.658200875878574</v>
+        <v>1.910322325144653</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.972328679101268</v>
+        <v>0.9021070374263764</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.21357541269778</v>
+        <v>5.299818123828585</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.118284423732769</v>
+        <v>2.233524982944745</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09827978703726165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01136623133469546</v>
+        <v>-0.01136623133469564</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.022243555451799</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08661931517802147</v>
+        <v>-0.08756616660825782</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07472542049488866</v>
+        <v>0.07159425047510705</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02873887759870216</v>
+        <v>-0.02892780275817002</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1069007921583025</v>
+        <v>-0.1051783471725957</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02720207503429083</v>
+        <v>0.02084918626877091</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08127055326427726</v>
+        <v>-0.07580472393784686</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07433467181695627</v>
+        <v>-0.07802141322485864</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.06443295975172224</v>
+        <v>0.06560937286383449</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03553795370687338</v>
+        <v>-0.03394039440572148</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08923454366995227</v>
+        <v>0.08701338353581303</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2799801633273156</v>
+        <v>0.2643369616663531</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1544845537180655</v>
+        <v>0.161201356449005</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03355513186226246</v>
+        <v>0.03780498450941437</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1744400784168084</v>
+        <v>0.1757138322933462</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05468747965940333</v>
+        <v>0.06341444143879631</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03508725506897249</v>
+        <v>0.03400367667208578</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1904131524036388</v>
+        <v>0.1929986758400182</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.07686101190368744</v>
+        <v>0.0811698362405537</v>
       </c>
     </row>
     <row r="34">
